--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/sekkei/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/kadai_sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1324E2AF-1309-4FB5-810F-E4A919142FD0}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20EAA518-FAD5-4516-8661-76293846C538}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -1842,17 +1842,32 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1896,32 +1911,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4277,25 +4277,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4305,27 +4305,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -4333,48 +4333,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -4415,10 +4415,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4459,10 +4459,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -4497,8 +4497,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -4531,8 +4531,8 @@
       <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -4644,25 +4644,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4672,27 +4672,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -4700,48 +4700,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -4782,10 +4782,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4826,10 +4826,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -4864,8 +4864,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -4894,8 +4894,8 @@
       <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -4928,8 +4928,8 @@
       <c r="K10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -4964,6 +4964,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -4971,13 +4978,6 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5014,25 +5014,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -5042,27 +5042,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -5070,48 +5070,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -5152,10 +5152,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -5196,10 +5196,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -5234,8 +5234,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -5268,8 +5268,8 @@
       <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -5302,10 +5302,10 @@
       <c r="K10" s="24">
         <v>0</v>
       </c>
-      <c r="L10" s="88" t="s">
+      <c r="L10" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="89"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -5340,6 +5340,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -5347,13 +5354,6 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5366,8 +5366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:K22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -5390,25 +5390,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -5418,27 +5418,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
@@ -5446,48 +5446,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -5528,10 +5528,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -5572,10 +5572,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -5610,8 +5610,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -5644,8 +5644,8 @@
       <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -5714,8 +5714,8 @@
       <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24" t="s">
         <v>64</v>
@@ -5750,10 +5750,10 @@
       <c r="K12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="88" t="s">
+      <c r="L12" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="89"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -5786,16 +5786,18 @@
       <c r="K13" s="24">
         <v>0</v>
       </c>
-      <c r="L13" s="88" t="s">
+      <c r="L13" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="89"/>
+      <c r="M13" s="112"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="32">
+        <v>8</v>
+      </c>
       <c r="B14" s="23" t="s">
         <v>128</v>
       </c>
@@ -5828,7 +5830,7 @@
     </row>
     <row r="15" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>123</v>
@@ -5862,7 +5864,7 @@
     </row>
     <row r="16" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>124</v>
@@ -5896,7 +5898,7 @@
     </row>
     <row r="17" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>125</v>
@@ -5930,7 +5932,7 @@
     </row>
     <row r="18" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>84</v>
@@ -5962,7 +5964,7 @@
     </row>
     <row r="19" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>51</v>
@@ -5988,17 +5990,17 @@
       <c r="K19" s="24">
         <v>0</v>
       </c>
-      <c r="L19" s="88" t="s">
+      <c r="L19" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="89"/>
+      <c r="M19" s="112"/>
       <c r="N19" s="28"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>52</v>
@@ -6024,17 +6026,17 @@
       <c r="K20" s="24">
         <v>0</v>
       </c>
-      <c r="L20" s="88" t="s">
+      <c r="L20" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="89"/>
+      <c r="M20" s="112"/>
       <c r="N20" s="28"/>
       <c r="O20" s="24"/>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>53</v>
@@ -6062,7 +6064,7 @@
     </row>
     <row r="22" spans="1:16" ht="31.5" customHeight="1">
       <c r="A22" s="32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>54</v>
@@ -6082,16 +6084,28 @@
       <c r="K22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="88" t="s">
+      <c r="L22" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="89"/>
+      <c r="M22" s="112"/>
       <c r="N22" s="28"/>
       <c r="O22" s="24"/>
       <c r="P22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -6099,18 +6113,6 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6147,25 +6149,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -6175,27 +6177,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -6203,48 +6205,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -6285,10 +6287,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -6329,10 +6331,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -6367,8 +6369,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -6455,8 +6457,8 @@
       <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -6489,8 +6491,8 @@
       <c r="K12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="89"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -6523,10 +6525,10 @@
       <c r="K13" s="24">
         <v>0</v>
       </c>
-      <c r="L13" s="88" t="s">
+      <c r="L13" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="89"/>
+      <c r="M13" s="112"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -6581,16 +6583,23 @@
       <c r="K15" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L15" s="88" t="s">
+      <c r="L15" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="89"/>
+      <c r="M15" s="112"/>
       <c r="N15" s="28"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L15:M15"/>
@@ -6600,13 +6609,6 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6643,25 +6645,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -6671,27 +6673,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -6699,48 +6701,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -6781,10 +6783,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -6825,10 +6827,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -6863,8 +6865,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -6905,6 +6907,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -6912,11 +6919,6 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6953,25 +6955,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -6981,27 +6983,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -7009,48 +7011,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -7091,10 +7093,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -7135,10 +7137,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -7173,8 +7175,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -7233,10 +7235,10 @@
       <c r="K10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="88" t="s">
+      <c r="L10" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="M10" s="89"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -7296,7 +7298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA679CA9-087C-4098-A86E-BB6E0C63CCF8}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -7320,25 +7322,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -7348,27 +7350,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -7376,48 +7378,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -7458,10 +7460,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -7502,10 +7504,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -7540,8 +7542,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -7570,8 +7572,8 @@
       <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -7634,8 +7636,8 @@
       <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -7668,10 +7670,10 @@
       <c r="K12" s="24">
         <v>0</v>
       </c>
-      <c r="L12" s="88" t="s">
+      <c r="L12" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="89"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -7726,16 +7728,23 @@
       <c r="K14" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L14" s="88" t="s">
+      <c r="L14" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="89"/>
+      <c r="M14" s="112"/>
       <c r="N14" s="28"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L14:M14"/>
@@ -7745,13 +7754,6 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -7788,25 +7790,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -7816,27 +7818,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -7844,48 +7846,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -7926,10 +7928,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -7970,10 +7972,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -8008,8 +8010,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -8042,8 +8044,8 @@
       <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -8076,10 +8078,10 @@
       <c r="K10" s="24">
         <v>0</v>
       </c>
-      <c r="L10" s="88" t="s">
+      <c r="L10" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="89"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -8134,16 +8136,23 @@
       <c r="K12" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L12" s="88" t="s">
+      <c r="L12" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="89"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
@@ -8152,13 +8161,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8195,25 +8197,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -8223,27 +8225,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -8251,48 +8253,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -8333,10 +8335,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -8377,10 +8379,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -8415,8 +8417,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -8483,8 +8485,8 @@
       <c r="K10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -8517,10 +8519,10 @@
       <c r="K11" s="24">
         <v>0</v>
       </c>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="89"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -8575,23 +8577,16 @@
       <c r="K13" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L13" s="88" t="s">
+      <c r="L13" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="89"/>
+      <c r="M13" s="112"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="A3:B4"/>
@@ -8600,6 +8595,13 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8636,25 +8638,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -8664,27 +8666,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -8692,48 +8694,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -8774,10 +8776,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -8818,10 +8820,10 @@
       <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>63</v>
@@ -8856,8 +8858,8 @@
       <c r="K8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -8890,8 +8892,8 @@
       <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/kadai_sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20EAA518-FAD5-4516-8661-76293846C538}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3D7EFA-85CE-4BE3-B293-D5F59463B2F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="171">
   <si>
     <t>説明／備考</t>
   </si>
@@ -634,13 +634,6 @@
     <t>ブログ登録</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>画像</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -4312,17 +4305,17 @@
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>104</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
       <c r="H2" s="94"/>
       <c r="I2" s="95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
@@ -4342,7 +4335,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
@@ -4474,10 +4467,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>35</v>
@@ -4508,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>35</v>
@@ -4542,13 +4535,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="27"/>
@@ -4570,13 +4563,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
@@ -4679,17 +4672,17 @@
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>112</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
       <c r="H2" s="94"/>
       <c r="I2" s="95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
@@ -4709,7 +4702,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
@@ -4841,7 +4834,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>78</v>
@@ -4875,13 +4868,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="27"/>
@@ -4905,10 +4898,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>35</v>
@@ -4942,10 +4935,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
@@ -4954,7 +4947,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="65"/>
@@ -5049,17 +5042,17 @@
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
       <c r="H2" s="94"/>
       <c r="I2" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
@@ -5079,7 +5072,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
@@ -5211,10 +5204,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>35</v>
@@ -5245,10 +5238,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>35</v>
@@ -5279,10 +5272,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>35</v>
@@ -5303,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M10" s="112"/>
       <c r="N10" s="28"/>
@@ -5315,13 +5308,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
@@ -5366,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -5763,10 +5756,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>35</v>
@@ -5787,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M13" s="112"/>
       <c r="N13" s="28"/>
@@ -5799,10 +5792,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>35</v>
@@ -5833,10 +5826,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>45</v>
@@ -5867,10 +5860,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>45</v>
@@ -5901,10 +5894,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>45</v>
@@ -6045,7 +6038,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
@@ -6054,7 +6047,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L21" s="64"/>
       <c r="M21" s="65"/>
@@ -6073,7 +6066,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
@@ -6082,7 +6075,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L22" s="111" t="s">
         <v>59</v>
@@ -6444,7 +6437,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
@@ -6544,7 +6537,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="27"/>
@@ -6553,7 +6546,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="65"/>
@@ -6572,7 +6565,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="27"/>
@@ -6581,7 +6574,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L15" s="111" t="s">
         <v>59</v>
@@ -6683,14 +6676,14 @@
         <v>93</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
       <c r="H2" s="94"/>
       <c r="I2" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
@@ -6710,7 +6703,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
@@ -6842,10 +6835,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>35</v>
@@ -6876,7 +6869,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>92</v>
@@ -6993,14 +6986,14 @@
         <v>93</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
       <c r="H2" s="94"/>
       <c r="I2" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
@@ -7020,7 +7013,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
@@ -7152,10 +7145,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>35</v>
@@ -7184,10 +7177,10 @@
     <row r="9" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>35</v>
@@ -7216,13 +7209,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="27"/>
@@ -7236,7 +7229,7 @@
         <v>65</v>
       </c>
       <c r="L10" s="111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M10" s="112"/>
       <c r="N10" s="28"/>
@@ -7246,13 +7239,13 @@
     <row r="11" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>168</v>
-      </c>
       <c r="D11" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
@@ -7263,7 +7256,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="65"/>
@@ -7296,10 +7289,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA679CA9-087C-4098-A86E-BB6E0C63CCF8}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -7559,7 +7552,7 @@
         <v>79</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="27"/>
@@ -7579,12 +7572,14 @@
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="32">
+        <v>4</v>
+      </c>
       <c r="B10" s="23" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>45</v>
@@ -7595,34 +7590,36 @@
       <c r="F10" s="27">
         <v>0</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E11" s="26">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F11" s="27">
         <v>0</v>
@@ -7633,10 +7630,12 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="111"/>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="111" t="s">
+        <v>56</v>
+      </c>
       <c r="M11" s="112"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
@@ -7644,52 +7643,44 @@
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="26">
-        <v>1</v>
-      </c>
-      <c r="F12" s="27">
-        <v>0</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>17</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
-      <c r="L12" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="112"/>
+      <c r="K12" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+    <row r="13" spans="1:16" ht="31.5" customHeight="1">
       <c r="A13" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
@@ -7698,43 +7689,15 @@
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
+        <v>146</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="112"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A14" s="32">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="112"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7745,9 +7708,9 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L6:M6"/>
@@ -7855,7 +7818,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
@@ -8097,7 +8060,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
@@ -8106,7 +8069,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="65"/>
@@ -8125,7 +8088,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="27"/>
@@ -8134,7 +8097,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" s="111" t="s">
         <v>59</v>
@@ -8235,14 +8198,14 @@
         <v>82</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
       <c r="H2" s="94"/>
       <c r="I2" s="95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
@@ -8262,7 +8225,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
@@ -8394,10 +8357,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>35</v>
@@ -8428,10 +8391,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>45</v>
@@ -8538,7 +8501,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="27"/>
@@ -8547,7 +8510,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="65"/>
@@ -8566,7 +8529,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
@@ -8575,7 +8538,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" s="111" t="s">
         <v>59</v>
@@ -8673,17 +8636,17 @@
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
       <c r="H2" s="94"/>
       <c r="I2" s="95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
@@ -8703,7 +8666,7 @@
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
@@ -8835,10 +8798,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>35</v>
@@ -8869,10 +8832,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>45</v>
@@ -8903,13 +8866,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="27"/>
@@ -8918,7 +8881,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="65"/>

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/kadai_sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3D7EFA-85CE-4BE3-B293-D5F59463B2F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB56ED-B6A5-4C92-AFB2-B735E8C47672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -5359,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -7291,7 +7291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA679CA9-087C-4098-A86E-BB6E0C63CCF8}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
